--- a/output/0/tRNA-Leu-CAG-2-2.xlsx
+++ b/output/0/tRNA-Leu-CAG-2-2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="85">
   <si>
     <t>chr16</t>
   </si>
@@ -267,21 +267,6 @@
   </si>
   <si>
     <t>66</t>
-  </si>
-  <si>
-    <t>57334456</t>
-  </si>
-  <si>
-    <t>57334479</t>
-  </si>
-  <si>
-    <t>AAGCAGTCAGGATGGCCGAG</t>
-  </si>
-  <si>
-    <t>99% (72)</t>
-  </si>
-  <si>
-    <t>64</t>
   </si>
 </sst>
 </file>
@@ -326,7 +311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -922,65 +907,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" t="s">
-        <v>88</v>
-      </c>
-      <c r="O11" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>32</v>
-      </c>
-      <c r="R11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S11" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
